--- a/public/qgzx/Book1.xlsx
+++ b/public/qgzx/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12330"/>
+    <workbookView xWindow="600" yWindow="375" windowWidth="27795" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,64 +16,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>序号</t>
   </si>
   <si>
     <t>学号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工作单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行账号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行卡账号</t>
   </si>
   <si>
     <t>工作时数</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>潘筱茜</t>
-  </si>
-  <si>
-    <t>学生部</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6216632000000207789</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6216632000000207780</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工资金额</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,71 +53,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -156,17 +82,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,87 +380,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="16.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>2140030410</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2140030410</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -555,7 +425,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -568,7 +438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>